--- a/5-Software Service Catalog -SS/Forms/FeedBack Survey Form F9.xlsx
+++ b/5-Software Service Catalog -SS/Forms/FeedBack Survey Form F9.xlsx
@@ -5,20 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\5-Software Service Catalog -SS\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\1-Software Development Lifecycle\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78502836-715A-4453-9826-115A155C085C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DC8E86-1D51-49B0-8323-BFB0272540E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1935" windowWidth="15375" windowHeight="7875" xr2:uid="{0FD72531-45CD-44DA-85CA-64CA552C7522}"/>
+    <workbookView xWindow="20370" yWindow="-2595" windowWidth="29040" windowHeight="15840" xr2:uid="{0FD72531-45CD-44DA-85CA-64CA552C7522}"/>
   </bookViews>
   <sheets>
-    <sheet name="S-SW-SC-09" sheetId="1" r:id="rId1"/>
+    <sheet name="F-SW-SD-09" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'S-SW-SC-09'!$A$1:$F$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-SW-SD-09'!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -904,8 +904,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,12 +1263,12 @@
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;16Issue No.:(01)&amp;C&amp;"Arial,Regular"&amp;16F-SW-SD/09&amp;R&amp;"Arial,Regular"&amp;16Rev: 0(0/0/2025)</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;16Issue No.:(01)&amp;C&amp;"Arial,Regular"&amp;16F-SW-SD/09&amp;R&amp;"Arial,Regular"&amp;16Rev:0(01/10/2025)</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="11">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please select your department from the drop list" xr:uid="{1B1EE51F-BF2A-4F31-B845-9092864A5B6D}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$11</xm:f>
